--- a/Docs/Abgabe MileStone 3/BCNF_v1.xlsx
+++ b/Docs/Abgabe MileStone 3/BCNF_v1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubReps\InfoSys-Lab\Docs\Abgabe MileStone 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11676" windowHeight="4572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -132,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,13 +241,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,7 +280,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -308,7 +313,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4"/>
+        <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -355,7 +366,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5"/>
+        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -402,7 +419,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6"/>
+        <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -449,7 +472,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7"/>
+        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -496,7 +525,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8"/>
+        <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -543,7 +578,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9"/>
+        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -590,7 +631,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10"/>
+        <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -637,7 +684,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11"/>
+        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -684,7 +737,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Gerade Verbindung mit Pfeil 12"/>
+        <xdr:cNvPr id="13" name="Gerade Verbindung mit Pfeil 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -731,7 +790,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13"/>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -778,7 +843,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14"/>
+        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -825,7 +896,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15"/>
+        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -872,7 +949,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16"/>
+        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -919,7 +1002,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17"/>
+        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -966,7 +1055,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18"/>
+        <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1013,7 +1108,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21"/>
+        <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1060,7 +1161,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Gerade Verbindung mit Pfeil 27"/>
+        <xdr:cNvPr id="28" name="Gerade Verbindung mit Pfeil 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1107,7 +1214,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Gerade Verbindung mit Pfeil 28"/>
+        <xdr:cNvPr id="29" name="Gerade Verbindung mit Pfeil 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1154,7 +1267,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Gerade Verbindung mit Pfeil 29"/>
+        <xdr:cNvPr id="30" name="Gerade Verbindung mit Pfeil 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1201,7 +1320,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Gerade Verbindung mit Pfeil 33"/>
+        <xdr:cNvPr id="34" name="Gerade Verbindung mit Pfeil 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1248,7 +1373,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Gerade Verbindung mit Pfeil 36"/>
+        <xdr:cNvPr id="37" name="Gerade Verbindung mit Pfeil 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1282,25 +1413,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>752476</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13336</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Gerade Verbindung mit Pfeil 37"/>
+        <xdr:cNvPr id="38" name="Gerade Verbindung mit Pfeil 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="12934950" y="1143000"/>
+          <a:off x="13475970" y="1097280"/>
           <a:ext cx="9526" cy="171451"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1342,7 +1479,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Gerade Verbindung mit Pfeil 38"/>
+        <xdr:cNvPr id="39" name="Gerade Verbindung mit Pfeil 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1389,7 +1532,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Gerade Verbindung mit Pfeil 40"/>
+        <xdr:cNvPr id="41" name="Gerade Verbindung mit Pfeil 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1436,7 +1585,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Gerade Verbindung mit Pfeil 41"/>
+        <xdr:cNvPr id="42" name="Gerade Verbindung mit Pfeil 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1470,26 +1625,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>7621</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:rowOff>173357</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Gerade Verbindung mit Pfeil 42"/>
+        <xdr:cNvPr id="43" name="Gerade Verbindung mit Pfeil 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3800475" y="2867025"/>
-          <a:ext cx="9526" cy="171451"/>
+          <a:off x="3962400" y="2743200"/>
+          <a:ext cx="7621" cy="173357"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1530,7 +1691,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Gerade Verbindung mit Pfeil 43"/>
+        <xdr:cNvPr id="44" name="Gerade Verbindung mit Pfeil 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1854,23 +2021,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1879,51 +2046,51 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
@@ -1941,7 +2108,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1949,73 +2116,73 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
@@ -2023,43 +2190,43 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -2071,7 +2238,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2083,7 +2250,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2095,34 +2262,34 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
@@ -2133,7 +2300,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2144,7 +2311,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2155,27 +2322,27 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>17</v>
       </c>
@@ -2184,20 +2351,20 @@
         <v>23</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
@@ -2207,19 +2374,19 @@
       <c r="H38" s="4"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2230,39 +2397,39 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="11"/>
+      <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9" t="s">
+      <c r="J43" s="11"/>
+      <c r="K43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="2"/>
@@ -2276,7 +2443,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2290,7 +2457,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2304,25 +2471,25 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2331,54 +2498,54 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>32</v>
       </c>
@@ -2391,14 +2558,14 @@
         <v>34</v>
       </c>
       <c r="F58" s="10"/>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="2"/>
@@ -2408,7 +2575,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2420,7 +2587,7 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2434,11 +2601,41 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:D53"/>
@@ -2448,41 +2645,11 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Abgabe MileStone 3/BCNF_v1.xlsx
+++ b/Docs/Abgabe MileStone 3/BCNF_v1.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubReps\InfoSys-Lab\Docs\Abgabe MileStone 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\hs-esslingen\Unterrichtsfächer\7. Semester\Infosys\GitRepo\InfoSys-Lab\Docs\Abgabe MileStone 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11676" windowHeight="4572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="BCNF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Studiengang</t>
   </si>
@@ -132,13 +132,61 @@
   </si>
   <si>
     <t>VorlesungReal_Name</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Dozent Prüfernummer</t>
+  </si>
+  <si>
+    <t>Tabelle ist in BCNF, da alle Attribute (Zeitfenster) lediglich vom CK abhängen</t>
+  </si>
+  <si>
+    <t>Tabelle ist in BCNF, da alle Attribute (Name) lediglich vom CK abhängen</t>
+  </si>
+  <si>
+    <t>Dozent Prüfernummer, Zeitsemester</t>
+  </si>
+  <si>
+    <t>Tabelle ist in BCNF, da alle Attribute  lediglich vom CK abhängen</t>
+  </si>
+  <si>
+    <t>Name, Zeitsemester</t>
+  </si>
+  <si>
+    <t>Name, SPO, Zeitsemester</t>
+  </si>
+  <si>
+    <t>Anmerkung: woher weiss ich für welches Semester welche SPO gilt?</t>
+  </si>
+  <si>
+    <t>Tabelle ist nicht in BCNF da Fakultät_Kürzel ledliglich vom Namen + ggf. SPO abhängt</t>
+  </si>
+  <si>
+    <t>Tabelle ist nicht in BCNF, da der Name der Tätigkeit die Zuordnung zur Fakultät ebenfalls bestimmt?</t>
+  </si>
+  <si>
+    <t>Welchen Mehrwert bringt diese Tabelle?</t>
+  </si>
+  <si>
+    <t>In einem Raum finden zeitlich versetzt mehrere Vorlesungen statt, wie verhält es sich also mit dem VorlesungsBlock / Tag</t>
+  </si>
+  <si>
+    <t>Vorschlag: Raum erhält ID welche auf RaumNummer / Gebäude / Standort verweist und in VorlesungReal wird dann um den Eintrag Raum_id ergänzt</t>
+  </si>
+  <si>
+    <t>PirvMail</t>
+  </si>
+  <si>
+    <t>Tabelle ist nicht in BCNF da zusätzlich zur Prüfernummer auch die PrivMail und die HsMail UNIQUE sind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +206,20 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,15 +304,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -280,7 +346,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -302,13 +368,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -355,13 +421,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -408,13 +474,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -461,13 +527,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -512,68 +578,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4572000" y="1905000"/>
-          <a:ext cx="9526" cy="171451"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -620,13 +633,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -673,13 +686,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -726,13 +739,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -779,13 +792,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -832,13 +845,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -883,68 +896,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2286000" y="5715000"/>
-          <a:ext cx="9526" cy="171451"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -991,13 +951,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1044,13 +1004,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1097,13 +1057,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1150,13 +1110,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1203,13 +1163,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1256,13 +1216,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1309,13 +1269,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1362,13 +1322,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1415,13 +1375,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>13336</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1466,68 +1426,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Gerade Verbindung mit Pfeil 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5324475" y="2886075"/>
-          <a:ext cx="9526" cy="171451"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1574,13 +1481,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1627,13 +1534,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>173357</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1680,13 +1587,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2028,16 +1935,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2046,263 +1956,267 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2310,8 +2224,9 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2321,72 +2236,70 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D39" s="11"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2397,53 +2310,46 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2453,141 +2359,163 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G55" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="10"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2598,58 +2526,306 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Abgabe MileStone 3/BCNF_v1.xlsx
+++ b/Docs/Abgabe MileStone 3/BCNF_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\hs-esslingen\Unterrichtsfächer\7. Semester\Infosys\GitRepo\InfoSys-Lab\Docs\Abgabe MileStone 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huml\Downloads\InfoSys-Lab-DataConversion\Docs\Abgabe MileStone 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Studiengang</t>
   </si>
@@ -158,18 +158,9 @@
     <t>Name, SPO, Zeitsemester</t>
   </si>
   <si>
-    <t>Anmerkung: woher weiss ich für welches Semester welche SPO gilt?</t>
-  </si>
-  <si>
     <t>Tabelle ist nicht in BCNF da Fakultät_Kürzel ledliglich vom Namen + ggf. SPO abhängt</t>
   </si>
   <si>
-    <t>Tabelle ist nicht in BCNF, da der Name der Tätigkeit die Zuordnung zur Fakultät ebenfalls bestimmt?</t>
-  </si>
-  <si>
-    <t>Welchen Mehrwert bringt diese Tabelle?</t>
-  </si>
-  <si>
     <t>In einem Raum finden zeitlich versetzt mehrere Vorlesungen statt, wie verhält es sich also mit dem VorlesungsBlock / Tag</t>
   </si>
   <si>
@@ -180,13 +171,16 @@
   </si>
   <si>
     <t>Tabelle ist nicht in BCNF da zusätzlich zur Prüfernummer auch die PrivMail und die HsMail UNIQUE sind</t>
+  </si>
+  <si>
+    <t>Tabelle ist nicht in BCNF, da der Name der Tätigkeit die Zuordnung zur Fakultät ebenfalls bestimmt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +214,12 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,6 +304,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,10 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -382,7 +383,7 @@
         <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -435,7 +436,7 @@
         <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -488,7 +489,7 @@
         <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -541,7 +542,7 @@
         <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,7 +595,7 @@
         <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -647,7 +648,7 @@
         <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -700,7 +701,7 @@
         <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,7 +754,7 @@
         <xdr:cNvPr id="13" name="Gerade Verbindung mit Pfeil 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -806,7 +807,7 @@
         <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -859,7 +860,7 @@
         <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -912,7 +913,7 @@
         <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +966,7 @@
         <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1018,7 +1019,7 @@
         <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1072,7 @@
         <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,23 +1109,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>171452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="Gerade Verbindung mit Pfeil 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,8 +1133,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2276475" y="9144000"/>
-          <a:ext cx="9526" cy="171451"/>
+          <a:off x="2628900" y="11229975"/>
+          <a:ext cx="1" cy="180977"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1177,7 +1178,7 @@
         <xdr:cNvPr id="29" name="Gerade Verbindung mit Pfeil 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1231,7 @@
         <xdr:cNvPr id="30" name="Gerade Verbindung mit Pfeil 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1284,7 @@
         <xdr:cNvPr id="34" name="Gerade Verbindung mit Pfeil 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1337,7 @@
         <xdr:cNvPr id="37" name="Gerade Verbindung mit Pfeil 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1390,7 @@
         <xdr:cNvPr id="38" name="Gerade Verbindung mit Pfeil 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1443,7 @@
         <xdr:cNvPr id="41" name="Gerade Verbindung mit Pfeil 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1496,7 @@
         <xdr:cNvPr id="42" name="Gerade Verbindung mit Pfeil 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1549,7 @@
         <xdr:cNvPr id="43" name="Gerade Verbindung mit Pfeil 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1602,7 @@
         <xdr:cNvPr id="44" name="Gerade Verbindung mit Pfeil 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,42 +1964,42 @@
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="10"/>
+      <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -2035,7 +2036,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2045,13 +2046,13 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2070,17 +2071,17 @@
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
@@ -2094,7 +2095,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2134,22 +2135,22 @@
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -2168,7 +2169,7 @@
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2197,22 +2198,22 @@
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -2239,7 +2240,7 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2268,25 +2269,25 @@
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10" t="s">
+      <c r="G39" s="14"/>
+      <c r="H39" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
@@ -2322,7 +2323,7 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2381,26 +2382,26 @@
       <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="12" t="s">
+      <c r="H49" s="15"/>
+      <c r="I49" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="12"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
@@ -2425,7 +2426,7 @@
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -2434,7 +2435,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2448,9 +2449,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="G55" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
@@ -2476,30 +2475,30 @@
       <c r="B58" s="7"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="15"/>
+      <c r="C59" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10" t="s">
+      <c r="F59" s="14"/>
+      <c r="G59" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10" t="s">
+      <c r="H59" s="14"/>
+      <c r="I59" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10" t="s">
+      <c r="J59" s="14"/>
+      <c r="K59" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L59" s="10"/>
+      <c r="L59" s="14"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
@@ -2544,7 +2543,7 @@
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2553,8 +2552,8 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="15" t="s">
-        <v>46</v>
+      <c r="G63" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -2612,24 +2611,22 @@
       <c r="B67" s="7"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="D69" s="12"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -2649,14 +2646,14 @@
       <c r="B72" s="7"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="15"/>
+      <c r="C73" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="10"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
@@ -2675,7 +2672,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -2709,24 +2706,24 @@
       <c r="B81" s="7"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
+      <c r="D82" s="15"/>
+      <c r="E82" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="10" t="s">
+      <c r="F82" s="15"/>
+      <c r="G82" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
@@ -2763,34 +2760,39 @@
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="A68:B68"/>
@@ -2807,25 +2809,20 @@
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
